--- a/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
+++ b/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,98 @@
   </si>
   <si>
     <t>Hit_Block</t>
+  </si>
+  <si>
+    <t>Maps/Level_3</t>
+  </si>
+  <si>
+    <t>Map_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_3_2</t>
+  </si>
+  <si>
+    <t>Maps/Level_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_3_3</t>
+  </si>
+  <si>
+    <t>Map_3_4</t>
+  </si>
+  <si>
+    <t>Maps/Level_4</t>
+  </si>
+  <si>
+    <t>Map_4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_4_2</t>
+  </si>
+  <si>
+    <t>Map_4_3</t>
+  </si>
+  <si>
+    <t>Map_4_4</t>
+  </si>
+  <si>
+    <t>Map_4_5</t>
+  </si>
+  <si>
+    <t>Map_4_6</t>
+  </si>
+  <si>
+    <t>Maps/Level_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_4_7</t>
+  </si>
+  <si>
+    <t>Map_4_8</t>
+  </si>
+  <si>
+    <t>Map_4_9</t>
+  </si>
+  <si>
+    <t>Map_4_10</t>
+  </si>
+  <si>
+    <t>Maps/Level_5</t>
+  </si>
+  <si>
+    <t>Map_5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_5_2</t>
+  </si>
+  <si>
+    <t>Maps/Level_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_5_3</t>
+  </si>
+  <si>
+    <t>Map_5_4</t>
+  </si>
+  <si>
+    <t>Map_5_5</t>
+  </si>
+  <si>
+    <t>Map_5_6</t>
+  </si>
+  <si>
+    <t>Explosion_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddScoreEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -480,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,7 +583,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,13 +643,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -565,13 +657,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -579,10 +671,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -593,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -610,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -624,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -635,10 +727,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -649,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -663,10 +755,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -677,10 +769,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -694,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -708,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -718,163 +810,361 @@
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>

--- a/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
+++ b/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
@@ -194,7 +194,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AddScoreEffect</t>
+    <t>AddCoinEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,7 +583,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
+++ b/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,52 @@
   <si>
     <t>AddCoinEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Level_6</t>
+  </si>
+  <si>
+    <t>Maps/Level_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_6_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Level_7</t>
+  </si>
+  <si>
+    <t>Map_6_2</t>
+  </si>
+  <si>
+    <t>Map_6_3</t>
+  </si>
+  <si>
+    <t>Map_6_4</t>
+  </si>
+  <si>
+    <t>Map_6_5</t>
+  </si>
+  <si>
+    <t>Map_6_6</t>
+  </si>
+  <si>
+    <t>Map_7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Level_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_7_2</t>
+  </si>
+  <si>
+    <t>Map_7_3</t>
+  </si>
+  <si>
+    <t>Map_7_4</t>
   </si>
 </sst>
 </file>
@@ -572,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,7 +629,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1118,50 +1164,140 @@
       <c r="A38">
         <v>36</v>
       </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">

--- a/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
+++ b/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Maps/Level_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,13 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Maps/Level_2</t>
-  </si>
-  <si>
-    <t>Maps/Level_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map_2_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,9 +95,6 @@
     <t>Hit_Block</t>
   </si>
   <si>
-    <t>Maps/Level_3</t>
-  </si>
-  <si>
     <t>Map_3_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,19 +102,12 @@
     <t>Map_3_2</t>
   </si>
   <si>
-    <t>Maps/Level_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map_3_3</t>
   </si>
   <si>
     <t>Map_3_4</t>
   </si>
   <si>
-    <t>Maps/Level_4</t>
-  </si>
-  <si>
     <t>Map_4_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +127,6 @@
     <t>Map_4_6</t>
   </si>
   <si>
-    <t>Maps/Level_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map_4_7</t>
   </si>
   <si>
@@ -164,9 +139,6 @@
     <t>Map_4_10</t>
   </si>
   <si>
-    <t>Maps/Level_5</t>
-  </si>
-  <si>
     <t>Map_5_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +146,6 @@
     <t>Map_5_2</t>
   </si>
   <si>
-    <t>Maps/Level_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map_5_3</t>
   </si>
   <si>
@@ -198,20 +166,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Maps/Level_6</t>
-  </si>
-  <si>
-    <t>Maps/Level_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map_6_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Maps/Level_7</t>
-  </si>
-  <si>
     <t>Map_6_2</t>
   </si>
   <si>
@@ -231,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Maps/Level_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map_7_2</t>
   </si>
   <si>
@@ -242,6 +196,43 @@
   </si>
   <si>
     <t>Map_7_4</t>
+  </si>
+  <si>
+    <t>Maps/Map_1</t>
+  </si>
+  <si>
+    <t>Maps/Map_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Map_2</t>
+  </si>
+  <si>
+    <t>Maps/Map_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Map_3</t>
+  </si>
+  <si>
+    <t>Maps/Map_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Map_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Map_4</t>
+  </si>
+  <si>
+    <t>Maps/Map_5</t>
+  </si>
+  <si>
+    <t>Maps/Map_6</t>
+  </si>
+  <si>
+    <t>Maps/Map_7</t>
   </si>
 </sst>
 </file>
@@ -618,7 +609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -678,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -692,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -706,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -717,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -731,10 +722,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -745,10 +736,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -759,10 +750,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -773,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -787,10 +778,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -801,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -815,10 +806,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -829,10 +820,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -843,10 +834,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -857,10 +848,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -871,10 +862,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -885,10 +876,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -899,10 +890,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -913,10 +904,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -927,10 +918,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -941,10 +932,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -955,10 +946,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -969,10 +960,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -983,10 +974,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -997,10 +988,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1011,10 +1002,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
         <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1025,10 +1016,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1039,10 +1030,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1053,10 +1044,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1067,10 +1058,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1081,10 +1072,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1095,10 +1086,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1109,10 +1100,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1123,10 +1114,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1137,10 +1128,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1151,10 +1142,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1165,10 +1156,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1179,10 +1170,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -1193,10 +1184,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1207,10 +1198,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1221,10 +1212,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -1235,10 +1226,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1249,10 +1240,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1263,10 +1254,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1277,10 +1268,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1291,10 +1282,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D47">
         <v>3</v>

--- a/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
+++ b/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,38 @@
   </si>
   <si>
     <t>Maps/Map_7</t>
+  </si>
+  <si>
+    <t>PlayableBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rectangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -609,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,13 +768,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -750,13 +782,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -764,13 +796,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -778,13 +810,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -792,13 +824,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -806,13 +838,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -820,13 +852,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -834,10 +866,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -848,10 +880,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -862,10 +894,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -876,10 +908,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -890,10 +922,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -904,10 +936,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -918,10 +950,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -932,10 +964,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -946,10 +978,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -960,10 +992,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -974,10 +1006,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -988,10 +1020,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1002,10 +1034,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1016,10 +1048,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1033,7 +1065,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1047,7 +1079,7 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1061,7 +1093,7 @@
         <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1072,10 +1104,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1086,10 +1118,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1100,10 +1132,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1114,10 +1146,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1128,10 +1160,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1142,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1156,10 +1188,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1170,10 +1202,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -1184,10 +1216,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1198,10 +1230,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1212,10 +1244,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -1226,10 +1258,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1240,10 +1272,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1254,10 +1286,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1268,10 +1300,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1282,10 +1314,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -1295,83 +1327,146 @@
       <c r="A48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>

--- a/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
+++ b/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,48 +121,116 @@
     <t>Map_4_4</t>
   </si>
   <si>
-    <t>Map_4_5</t>
-  </si>
-  <si>
-    <t>Map_4_6</t>
-  </si>
-  <si>
-    <t>Map_4_7</t>
-  </si>
-  <si>
-    <t>Map_4_8</t>
-  </si>
-  <si>
-    <t>Map_4_9</t>
-  </si>
-  <si>
-    <t>Map_4_10</t>
+    <t>Map_5_2</t>
+  </si>
+  <si>
+    <t>Map_5_3</t>
+  </si>
+  <si>
+    <t>Explosion_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddCoinEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_6_2</t>
+  </si>
+  <si>
+    <t>Map_6_3</t>
+  </si>
+  <si>
+    <t>Map_6_4</t>
+  </si>
+  <si>
+    <t>Map_7_2</t>
+  </si>
+  <si>
+    <t>Map_7_3</t>
+  </si>
+  <si>
+    <t>Map_7_4</t>
+  </si>
+  <si>
+    <t>Maps/Map_1</t>
+  </si>
+  <si>
+    <t>Maps/Map_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Map_2</t>
+  </si>
+  <si>
+    <t>Maps/Map_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Map_3</t>
+  </si>
+  <si>
+    <t>Maps/Map_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Map_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Map_4</t>
+  </si>
+  <si>
+    <t>Maps/Map_5</t>
+  </si>
+  <si>
+    <t>Maps/Map_6</t>
+  </si>
+  <si>
+    <t>Maps/Map_7</t>
+  </si>
+  <si>
+    <t>PlayableBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rectangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps/Map_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Map_5_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map_5_2</t>
-  </si>
-  <si>
-    <t>Map_5_3</t>
-  </si>
-  <si>
-    <t>Map_5_4</t>
-  </si>
-  <si>
-    <t>Map_5_5</t>
-  </si>
-  <si>
-    <t>Map_5_6</t>
-  </si>
-  <si>
-    <t>Explosion_End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddCoinEffect</t>
+    <t>Maps/Map_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,101 +238,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map_6_2</t>
-  </si>
-  <si>
-    <t>Map_6_3</t>
-  </si>
-  <si>
-    <t>Map_6_4</t>
-  </si>
-  <si>
-    <t>Map_6_5</t>
-  </si>
-  <si>
-    <t>Map_6_6</t>
+    <t>Maps/Map_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Map_7_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map_7_2</t>
-  </si>
-  <si>
-    <t>Map_7_3</t>
-  </si>
-  <si>
-    <t>Map_7_4</t>
-  </si>
-  <si>
-    <t>Maps/Map_1</t>
-  </si>
-  <si>
-    <t>Maps/Map_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maps/Map_2</t>
-  </si>
-  <si>
-    <t>Maps/Map_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maps/Map_3</t>
-  </si>
-  <si>
-    <t>Maps/Map_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maps/Map_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maps/Map_4</t>
-  </si>
-  <si>
-    <t>Maps/Map_5</t>
-  </si>
-  <si>
-    <t>Maps/Map_6</t>
-  </si>
-  <si>
-    <t>Maps/Map_7</t>
-  </si>
-  <si>
-    <t>PlayableBlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rectangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Male</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Female</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Map_7_5</t>
+  </si>
+  <si>
+    <t>Map_7_6</t>
+  </si>
+  <si>
+    <t>Maps/Map_8</t>
+  </si>
+  <si>
+    <t>Maps/Map_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_8_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_8_2</t>
+  </si>
+  <si>
+    <t>Map_8_3</t>
+  </si>
+  <si>
+    <t>Map_8_4</t>
+  </si>
+  <si>
+    <t>Map_8_5</t>
+  </si>
+  <si>
+    <t>Map_8_6</t>
+  </si>
+  <si>
+    <t>Maps/Map_9</t>
+  </si>
+  <si>
+    <t>Maps/Map_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_9_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_9_2</t>
+  </si>
+  <si>
+    <t>Map_9_3</t>
+  </si>
+  <si>
+    <t>Map_9_4</t>
+  </si>
+  <si>
+    <t>Maps/Map_10</t>
+  </si>
+  <si>
+    <t>Map_10_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_10_2</t>
+  </si>
+  <si>
+    <t>Map_10_3</t>
+  </si>
+  <si>
+    <t>Map_10_4</t>
+  </si>
+  <si>
+    <t>Map_10_5</t>
+  </si>
+  <si>
+    <t>Map_10_6</t>
   </si>
 </sst>
 </file>
@@ -652,7 +705,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -729,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -768,10 +821,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -782,10 +835,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -796,10 +849,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -810,10 +863,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -824,10 +877,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -838,10 +891,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -852,10 +905,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -866,13 +919,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -880,13 +933,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,13 +947,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -908,13 +961,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -922,13 +975,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,13 +989,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,13 +1003,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,13 +1017,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,13 +1031,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,13 +1045,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,13 +1059,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,13 +1073,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,13 +1087,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1048,13 +1101,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,13 +1115,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,13 +1129,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,13 +1143,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1104,13 +1157,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,13 +1171,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,13 +1185,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,13 +1199,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1163,10 +1216,10 @@
         <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1180,7 +1233,7 @@
         <v>33</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,13 +1241,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,13 +1255,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1216,13 +1269,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,13 +1283,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1244,13 +1297,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1258,13 +1311,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,13 +1325,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1286,13 +1339,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,13 +1353,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1314,13 +1367,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,13 +1381,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1342,13 +1395,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1356,13 +1409,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1370,13 +1423,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,13 +1437,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,13 +1451,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1412,48 +1465,111 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">

--- a/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
+++ b/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,10 @@
   </si>
   <si>
     <t>Map_10_6</t>
+  </si>
+  <si>
+    <t>CoinCircle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -694,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -705,7 +709,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -919,13 +923,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -933,10 +937,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -947,10 +951,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -964,7 +968,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -975,10 +979,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -989,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1003,10 +1007,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1020,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1034,7 +1038,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1048,7 +1052,7 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1059,10 +1063,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1076,7 +1080,7 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1087,10 +1091,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1104,7 +1108,7 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1115,10 +1119,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1132,7 +1136,7 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1146,7 +1150,7 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1160,7 +1164,7 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1171,10 +1175,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1188,7 +1192,7 @@
         <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1199,10 +1203,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1213,10 +1217,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1230,7 +1234,7 @@
         <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1241,10 +1245,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1258,7 +1262,7 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1269,10 +1273,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1286,7 +1290,7 @@
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1297,10 +1301,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1314,7 +1318,7 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1328,7 +1332,7 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1342,7 +1346,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1353,10 +1357,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1370,7 +1374,7 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1381,10 +1385,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -1398,7 +1402,7 @@
         <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1412,7 +1416,7 @@
         <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -1426,7 +1430,7 @@
         <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -1437,10 +1441,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1454,7 +1458,7 @@
         <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -1465,10 +1469,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -1482,7 +1486,7 @@
         <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1493,10 +1497,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -1510,7 +1514,7 @@
         <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -1524,7 +1528,7 @@
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -1538,7 +1542,7 @@
         <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -1552,7 +1556,7 @@
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1566,7 +1570,7 @@
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -1575,6 +1579,15 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">

--- a/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
+++ b/Assets/MLFramework/3_PoolManager/Table/PoolTable.xlsx
@@ -698,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -761,7 +761,7 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -789,7 +789,7 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -803,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -817,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -943,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -957,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -985,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -999,7 +999,7 @@
         <v>13</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>14</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
         <v>15</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
         <v>16</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
         <v>17</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1069,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,7 +1083,7 @@
         <v>21</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1139,7 +1139,7 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>26</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1167,7 +1167,7 @@
         <v>27</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1181,7 +1181,7 @@
         <v>28</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,7 +1195,7 @@
         <v>59</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,7 +1209,7 @@
         <v>29</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,7 +1223,7 @@
         <v>30</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>61</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>33</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>34</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1279,7 +1279,7 @@
         <v>35</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1293,7 +1293,7 @@
         <v>63</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,7 +1307,7 @@
         <v>36</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1321,7 +1321,7 @@
         <v>37</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
         <v>38</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>64</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>65</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1377,7 +1377,7 @@
         <v>68</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>69</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>70</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,7 +1419,7 @@
         <v>71</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1433,7 +1433,7 @@
         <v>72</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,7 +1447,7 @@
         <v>73</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,7 +1461,7 @@
         <v>76</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
         <v>77</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1489,7 +1489,7 @@
         <v>78</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,7 +1503,7 @@
         <v>79</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
         <v>82</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1545,7 +1545,7 @@
         <v>83</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1559,7 +1559,7 @@
         <v>84</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1573,7 +1573,7 @@
         <v>85</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>86</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
